--- a/static/downloads/20 Bưu điện Tỉnh Quảng Ninh.xlsx
+++ b/static/downloads/20 Bưu điện Tỉnh Quảng Ninh.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200900_luyenpt</t>
+          <t>203200_vthhai</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203200_vthhai</t>
+          <t>205050_vuong</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>205050_vuong</t>
+          <t>207370_gdv_can</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>207370_gdv_can</t>
+          <t>205040_gdv_thin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205040_gdv_thin</t>
+          <t>203200_ntbich</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>203200_ntbich</t>
+          <t>207620_tvha</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,22 +532,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>207620_tvha</t>
+          <t>203200_ntphuong</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>20_Bưu điện Tỉnh Quảng Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>203200_ntphuong</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>20_Bưu điện Tỉnh Quảng Ninh</t>
         </is>
